--- a/穴位.xlsx
+++ b/穴位.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d602ac104747ee3d/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AR\Acupoint-AR-and-related-health-care-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="11_AD4DBB64A54DDB1B405E38CA5D583FC54E90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334CDAD0-E592-4756-BFE8-1EC9315233E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2B056-AC72-448C-8DC3-0A5C03C41361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>中醫</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(cx0 + cx13 + cx18) / 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一掌骨橈側中點赤白肉際處</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +184,6 @@
   </si>
   <si>
     <t>魚際穴o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(cx0 + cx5 + cx9) / 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,6 +428,22 @@
       </rPr>
       <t>, (cx16 , cy16), (cx20 , cy20)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgmid_x = (cx0 + cx5 + cx9) / 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgmid_y = (cy0 + cy5 + cy9) / 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfmid_x = (cx0 + cx13 + cx18) / 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfmid_y = (cy0 + cy13 + cy18) / 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -988,284 +996,297 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="1" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="B73" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>66</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/穴位.xlsx
+++ b/穴位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AR\Acupoint-AR-and-related-health-care-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2B056-AC72-448C-8DC3-0A5C03C41361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955EC20-8FA7-4073-8D0D-AC9838204A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
